--- a/Deconvolution/Experiments.xlsx
+++ b/Deconvolution/Experiments.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19650" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Deconvolution Experiments" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$2:$H$26</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Deconvolution Experiments'!$A$2:$H$26</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -818,7 +818,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
